--- a/kai/kai-warband_orks_mostly_epic.xlsx
+++ b/kai/kai-warband_orks_mostly_epic.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Characteristic analysis" sheetId="2" r:id="rId2"/>
     <sheet name="Boxen" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>helm</t>
   </si>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0" topLeftCell="B1">
+      <selection activeCell="J28" sqref="J28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,20 +1199,23 @@
     <col min="19" max="19" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="55.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" ht="18">
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="3" spans="2:18" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customFormat="1" s="6">
       <c r="B3" s="11" t="s">
         <v>138</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="H4" s="11" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="1" s="6">
       <c r="B5" s="4" t="s">
         <v>134</v>
       </c>
@@ -1262,45 +1265,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="1" s="6">
       <c r="B6" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="4">
         <f>G18+P40</f>
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I6" s="38">
         <f>U40</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J6" s="6">
         <f>U41</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K6" s="6">
         <f>U42</f>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" ht="15">
       <c r="B7" s="26" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="33">
         <f>C5-C6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <f>I3+(I6+I4)*I5</f>
-        <v>890</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" s="6"/>
+    <row r="10">
       <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="B11" s="39" t="s">
         <v>59</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>20</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G17" si="0">E11*D11</f>
+        <f>E11*D11</f>
         <v>80</v>
       </c>
       <c r="Q11" s="6" t="s">
@@ -1350,7 +1353,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" s="39"/>
       <c r="C12" s="6" t="s">
         <v>131</v>
@@ -1365,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>E12*D12</f>
         <v>40</v>
       </c>
       <c r="Q12" s="6" t="s">
@@ -1375,7 +1378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="B13" s="39"/>
       <c r="C13" s="6" t="s">
         <v>60</v>
@@ -1390,11 +1393,11 @@
         <v>15</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>E13*D13</f>
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" s="39" t="s">
         <v>31</v>
       </c>
@@ -1411,11 +1414,11 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>E14*D14</f>
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
         <v>62</v>
@@ -1430,11 +1433,11 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+        <f>E15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
         <v>63</v>
@@ -1449,11 +1452,11 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>E16*D16</f>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="B17" s="39"/>
       <c r="C17" s="5" t="s">
         <v>1</v>
@@ -1468,11 +1471,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f>E17*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15">
       <c r="C18" s="16" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="1" s="6">
       <c r="B19" s="17"/>
       <c r="F19" s="1"/>
       <c r="I19" s="40" t="s">
@@ -1499,7 +1502,7 @@
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
     </row>
-    <row r="20" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" ht="15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="I20" s="40" t="s">
@@ -1517,7 +1520,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="1" s="6">
       <c r="C21" s="12" t="s">
         <v>115</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="1" s="6">
       <c r="C22" s="6" t="s">
         <v>114</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="1" s="6">
       <c r="C23" s="6" t="s">
         <v>113</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="1" s="6">
       <c r="C24" s="6" t="s">
         <v>112</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="1" s="6">
       <c r="C25" s="6" t="s">
         <v>111</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="1" s="6">
       <c r="C26" s="6" t="s">
         <v>110</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="1" s="6">
       <c r="C27" s="6" t="s">
         <v>109</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="1" s="6">
       <c r="C28" s="6" t="s">
         <v>136</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
@@ -1966,7 +1969,7 @@
       </c>
       <c r="P28" s="6">
         <f>SUM(Tabelle2[[#This Row],[leader]:[troll]])*Tabelle2[[#This Row],[gc/unit]]</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -1983,10 +1986,10 @@
       </c>
       <c r="U28" s="30">
         <f>Tabelle2[[#This Row],[rating]]*SUM(Tabelle2[[#This Row],[leader]:[troll]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" s="6">
       <c r="C29" s="6" t="s">
         <v>108</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="1" s="6">
       <c r="C30" s="6" t="s">
         <v>107</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="1" s="6">
       <c r="C31" s="6" t="s">
         <v>106</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="1" s="6">
       <c r="C32" s="6" t="s">
         <v>105</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="1" s="6">
       <c r="C33" s="6" t="s">
         <v>104</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="1" s="6">
       <c r="C34" s="6" t="s">
         <v>103</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="1" s="6">
       <c r="C35" s="6" t="s">
         <v>102</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="1" s="6">
       <c r="C36" s="34" t="s">
         <v>75</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="1" s="6">
       <c r="C37" s="6" t="s">
         <v>101</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="1" s="6">
       <c r="C38" s="6" t="s">
         <v>100</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="1" s="6">
       <c r="C39" s="34" t="s">
         <v>0</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:21" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" ht="15" customFormat="1" s="6">
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="34"/>
@@ -2635,36 +2638,36 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="3">
-        <f t="shared" ref="I40:O40" si="1">I22*$H22+I23*$H23+I24*$H24+I25*$H25+I26*$H26+I27*$H27+I28*$H28+I29*$H29+I30*$H30+I31*$H31+I32*$H32+I33*$H33+I34*$H34+I35*$H35+I36*$H36+I37*$H37+I38*$H38+I39*$H39</f>
+        <f>I22*$H22+I23*$H23+I24*$H24+I25*$H25+I26*$H26+I27*$H27+I28*$H28+I29*$H29+I30*$H30+I31*$H31+I32*$H32+I33*$H33+I34*$H34+I35*$H35+I36*$H36+I37*$H37+I38*$H38+I39*$H39</f>
         <v>35</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>J22*$H22+J23*$H23+J24*$H24+J25*$H25+J26*$H26+J27*$H27+J28*$H28+J29*$H29+J30*$H30+J31*$H31+J32*$H32+J33*$H33+J34*$H34+J35*$H35+J36*$H36+J37*$H37+J38*$H38+J39*$H39</f>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="1"/>
+        <f>K22*$H22+K23*$H23+K24*$H24+K25*$H25+K26*$H26+K27*$H27+K28*$H28+K29*$H29+K30*$H30+K31*$H31+K32*$H32+K33*$H33+K34*$H34+K35*$H35+K36*$H36+K37*$H37+K38*$H38+K39*$H39</f>
         <v>30</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="1"/>
+        <f>L22*$H22+L23*$H23+L24*$H24+L25*$H25+L26*$H26+L27*$H27+L28*$H28+L29*$H29+L30*$H30+L31*$H31+L32*$H32+L33*$H33+L34*$H34+L35*$H35+L36*$H36+L37*$H37+L38*$H38+L39*$H39</f>
         <v>20</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="1"/>
+        <f>M22*$H22+M23*$H23+M24*$H24+M25*$H25+M26*$H26+M27*$H27+M28*$H28+M29*$H29+M30*$H30+M31*$H31+M32*$H32+M33*$H33+M34*$H34+M35*$H35+M36*$H36+M37*$H37+M38*$H38+M39*$H39</f>
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="1"/>
+        <f>N22*$H22+N23*$H23+N24*$H24+N25*$H25+N26*$H26+N27*$H27+N28*$H28+N29*$H29+N30*$H30+N31*$H31+N32*$H32+N33*$H33+N34*$H34+N35*$H35+N36*$H36+N37*$H37+N38*$H38+N39*$H39</f>
         <v>12</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="1"/>
+        <f>O22*$H22+O23*$H23+O24*$H24+O25*$H25+O26*$H26+O27*$H27+O28*$H28+O29*$H29+O30*$H30+O31*$H31+O32*$H32+O33*$H33+O34*$H34+O35*$H35+O36*$H36+O37*$H37+O38*$H38+O39*$H39</f>
         <v>0</v>
       </c>
       <c r="P40" s="2">
         <f>SUM(P22:P39)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q40" s="34"/>
       <c r="R40" s="37">
@@ -2677,10 +2680,10 @@
       </c>
       <c r="U40" s="2">
         <f>SUM(Tabelle2[Warband Equip Rating])</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" s="6">
       <c r="F41" s="29"/>
       <c r="S41" s="30"/>
       <c r="T41" s="6" t="s">
@@ -2688,10 +2691,10 @@
       </c>
       <c r="U41" s="6">
         <f>SUM(U22:U36)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" s="6">
       <c r="F42" s="29"/>
       <c r="S42" s="30"/>
       <c r="T42" s="6" t="s">
@@ -2702,7 +2705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="1" s="6">
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
@@ -2721,27 +2724,27 @@
       <c r="R43" s="34"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="3:21" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" ht="15" customFormat="1" s="6">
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="1" s="6"/>
+    <row r="46" customFormat="1" s="6"/>
+    <row r="47" customFormat="1" s="6"/>
+    <row r="48" customFormat="1" s="6"/>
+    <row r="49" customFormat="1" s="6"/>
+    <row r="50" customFormat="1" s="6"/>
+    <row r="51" customFormat="1" s="6"/>
+    <row r="52" customFormat="1" s="6">
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="1" s="6">
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
@@ -2750,57 +2753,57 @@
       <c r="I54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="1" s="6"/>
+    <row r="56" customFormat="1" s="6"/>
+    <row r="57" customFormat="1" s="6"/>
+    <row r="58" customFormat="1" s="6">
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="1" s="6"/>
+    <row r="60" customFormat="1" s="6"/>
+    <row r="61" customFormat="1" s="6"/>
+    <row r="62" customFormat="1" s="6"/>
+    <row r="63" customFormat="1" s="6"/>
+    <row r="64" customFormat="1" s="6"/>
+    <row r="65" customFormat="1" s="6"/>
+    <row r="66" customFormat="1" s="6"/>
+    <row r="67" customFormat="1" s="6"/>
+    <row r="68" customFormat="1" s="6"/>
+    <row r="69" customFormat="1" s="6"/>
+    <row r="70" customFormat="1" s="6"/>
+    <row r="71" customFormat="1" s="6"/>
+    <row r="72" customFormat="1" s="6"/>
+    <row r="73" customFormat="1" s="6"/>
+    <row r="74" customFormat="1" s="6"/>
+    <row r="75" customFormat="1" s="6"/>
+    <row r="76" customFormat="1" s="6"/>
+    <row r="77" customFormat="1" s="6"/>
+    <row r="78" customFormat="1" s="6"/>
+    <row r="79" customFormat="1" s="6"/>
+    <row r="80" customFormat="1" s="6"/>
+    <row r="81" customFormat="1" s="6"/>
+    <row r="82" customFormat="1" s="6"/>
+    <row r="83" customFormat="1" s="6"/>
+    <row r="84" customFormat="1" s="6"/>
+    <row r="85" customFormat="1" s="6"/>
+    <row r="86" customFormat="1" s="6"/>
+    <row r="87" customFormat="1" s="6"/>
+    <row r="88" customFormat="1" s="6"/>
+    <row r="89" customFormat="1" s="6"/>
+    <row r="90" customFormat="1" s="6"/>
+    <row r="91" customFormat="1" s="6"/>
+    <row r="92" customFormat="1" s="6"/>
+    <row r="93" customFormat="1" s="6"/>
+    <row r="94" customFormat="1" s="6"/>
+    <row r="95" customFormat="1" s="6"/>
+    <row r="96" customFormat="1" s="6"/>
+    <row r="97" customFormat="1" s="6"/>
+    <row r="98" customFormat="1" s="6"/>
+    <row r="99" customFormat="1" s="6"/>
+    <row r="100" customFormat="1" s="6"/>
+    <row r="101">
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="F101" s="6"/>
@@ -2809,7 +2812,7 @@
       <c r="I101" s="6"/>
       <c r="P101" s="6"/>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="F102" s="6"/>
@@ -2818,7 +2821,7 @@
       <c r="I102" s="6"/>
       <c r="P102" s="6"/>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="F103" s="6"/>
@@ -2827,7 +2830,7 @@
       <c r="I103" s="6"/>
       <c r="P103" s="6"/>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="F104" s="6"/>
@@ -2836,14 +2839,14 @@
       <c r="I104" s="6"/>
       <c r="P104" s="6"/>
     </row>
-    <row r="110" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="3:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="3:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" customFormat="1" s="6"/>
+    <row r="111" customFormat="1" s="6"/>
+    <row r="112" customFormat="1" s="6"/>
+    <row r="113" customFormat="1" s="6"/>
+    <row r="114" customFormat="1" s="6"/>
+    <row r="115" customFormat="1" s="6"/>
+    <row r="116" customFormat="1" s="6"/>
+    <row r="117" customHeight="1" ht="12">
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="F117" s="6"/>
@@ -2852,7 +2855,7 @@
       <c r="I117" s="6"/>
       <c r="P117" s="6"/>
     </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="F118" s="6"/>
@@ -2861,7 +2864,7 @@
       <c r="I118" s="6"/>
       <c r="P118" s="6"/>
     </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="F119" s="6"/>
@@ -2870,7 +2873,7 @@
       <c r="I119" s="6"/>
       <c r="P119" s="6"/>
     </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="F120" s="6"/>
@@ -3061,12 +3064,12 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" ht="15">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" ht="15">
       <c r="C3" s="41" t="s">
         <v>30</v>
       </c>
@@ -3079,7 +3082,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" s="13"/>
       <c r="C4" s="12" t="str">
         <f>'cost calculation'!C11</f>
@@ -3114,7 +3117,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
@@ -3175,11 +3178,11 @@
         <v>10</v>
       </c>
       <c r="L6" s="25">
-        <f t="shared" ref="L6:L11" si="0">K6-3</f>
+        <f>K6-3</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
@@ -3208,11 +3211,11 @@
         <v>10</v>
       </c>
       <c r="L7" s="25">
-        <f t="shared" si="0"/>
+        <f>K7-3</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
@@ -3241,11 +3244,11 @@
         <v>8</v>
       </c>
       <c r="L8" s="25">
-        <f t="shared" si="0"/>
+        <f>K8-3</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
@@ -3274,11 +3277,11 @@
         <v>8</v>
       </c>
       <c r="L9" s="25">
-        <f t="shared" si="0"/>
+        <f>K9-3</f>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
@@ -3307,11 +3310,11 @@
         <v>3</v>
       </c>
       <c r="L10" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+        <f>K10-3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
@@ -3340,11 +3343,11 @@
         <v>4</v>
       </c>
       <c r="L11" s="25">
-        <f t="shared" si="0"/>
+        <f>K11-3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3418,271 +3421,271 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="31">
-        <f t="shared" ref="C15:E22" si="1">$K6*C6/C$24</f>
+        <f>$K6*C6/C$24</f>
         <v>0.5</v>
       </c>
       <c r="D15" s="31">
-        <f t="shared" si="1"/>
+        <f>$K6*D6/D$24</f>
         <v>0.75</v>
       </c>
       <c r="E15" s="31">
-        <f t="shared" si="1"/>
+        <f>$K6*E6/E$24</f>
         <v>1</v>
       </c>
       <c r="F15" s="31">
-        <f t="shared" ref="F15:I22" si="2">$L6*F6/F$24</f>
-        <v>0.93333333333330004</v>
+        <f>$L6*F6/F$24</f>
+        <v>0.9333333333333</v>
       </c>
       <c r="G15" s="31">
-        <f t="shared" si="2"/>
+        <f>$L6*G6/G$24</f>
         <v>1.8666666666667</v>
       </c>
       <c r="H15" s="31">
-        <f t="shared" si="2"/>
+        <f>$L6*H6/H$24</f>
         <v>0.84</v>
       </c>
       <c r="I15" s="31">
-        <f t="shared" si="2"/>
+        <f>$L6*I6/I$24</f>
         <v>0.105</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="31">
-        <f t="shared" si="1"/>
+        <f>$K7*C7/C$24</f>
         <v>0.5</v>
       </c>
       <c r="D16" s="31">
-        <f t="shared" si="1"/>
+        <f>$K7*D7/D$24</f>
         <v>0.75</v>
       </c>
       <c r="E16" s="31">
-        <f t="shared" si="1"/>
+        <f>$K7*E7/E$24</f>
         <v>0.75</v>
       </c>
       <c r="F16" s="31">
-        <f t="shared" si="2"/>
+        <f>$L7*F7/F$24</f>
         <v>1.4</v>
       </c>
       <c r="G16" s="31">
-        <f t="shared" si="2"/>
+        <f>$L7*G7/G$24</f>
         <v>0</v>
       </c>
       <c r="H16" s="31">
-        <f t="shared" si="2"/>
+        <f>$L7*H7/H$24</f>
         <v>0.84</v>
       </c>
       <c r="I16" s="31">
-        <f t="shared" si="2"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <f>$L7*I7/I$24</f>
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="31">
-        <f t="shared" si="1"/>
+        <f>$K8*C8/C$24</f>
         <v>0.4</v>
       </c>
       <c r="D17" s="31">
-        <f t="shared" si="1"/>
+        <f>$K8*D8/D$24</f>
         <v>0.6</v>
       </c>
       <c r="E17" s="31">
-        <f t="shared" si="1"/>
+        <f>$K8*E8/E$24</f>
         <v>0.6</v>
       </c>
       <c r="F17" s="31">
-        <f t="shared" si="2"/>
+        <f>$L8*F8/F$24</f>
         <v>1</v>
       </c>
       <c r="G17" s="31">
-        <f t="shared" si="2"/>
+        <f>$L8*G8/G$24</f>
         <v>1.3333333333333</v>
       </c>
       <c r="H17" s="31">
-        <f t="shared" si="2"/>
+        <f>$L8*H8/H$24</f>
         <v>0.6</v>
       </c>
       <c r="I17" s="31">
-        <f t="shared" si="2"/>
+        <f>$L8*I8/I$24</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="31">
-        <f t="shared" si="1"/>
+        <f>$K9*C9/C$24</f>
         <v>0.4</v>
       </c>
       <c r="D18" s="31">
-        <f t="shared" si="1"/>
+        <f>$K9*D9/D$24</f>
         <v>0.8</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" si="1"/>
+        <f>$K9*E9/E$24</f>
         <v>0.8</v>
       </c>
       <c r="F18" s="31">
-        <f t="shared" si="2"/>
+        <f>$L9*F9/F$24</f>
         <v>1</v>
       </c>
       <c r="G18" s="31">
-        <f t="shared" si="2"/>
+        <f>$L9*G9/G$24</f>
         <v>1</v>
       </c>
       <c r="H18" s="31">
-        <f t="shared" si="2"/>
+        <f>$L9*H9/H$24</f>
         <v>0.8</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" si="2"/>
+        <f>$L9*I9/I$24</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="B19" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="31">
-        <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
+        <f>$K10*C10/C$24</f>
+        <v>0.0375</v>
       </c>
       <c r="D19" s="31">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <f>$K10*D10/D$24</f>
+        <v>0.075</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <f>$K10*E10/E$24</f>
+        <v>0.075</v>
       </c>
       <c r="F19" s="31">
-        <f t="shared" si="2"/>
+        <f>$L10*F10/F$24</f>
         <v>0</v>
       </c>
       <c r="G19" s="31">
-        <f t="shared" si="2"/>
+        <f>$L10*G10/G$24</f>
         <v>0</v>
       </c>
       <c r="H19" s="31">
-        <f t="shared" si="2"/>
+        <f>$L10*H10/H$24</f>
         <v>0</v>
       </c>
       <c r="I19" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <f>$L10*I10/I$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="B20" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" si="1"/>
+        <f>$K11*C11/C$24</f>
         <v>0.15</v>
       </c>
       <c r="D20" s="31">
-        <f t="shared" si="1"/>
+        <f>$K11*D11/D$24</f>
         <v>0.3</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="1"/>
+        <f>$K11*E11/E$24</f>
         <v>0.3</v>
       </c>
       <c r="F20" s="31">
-        <f t="shared" si="2"/>
+        <f>$L11*F11/F$24</f>
         <v>0.2</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="2"/>
-        <v>0.26666666666670003</v>
+        <f>$L11*G11/G$24</f>
+        <v>0.2666666666667</v>
       </c>
       <c r="H20" s="31">
-        <f t="shared" si="2"/>
+        <f>$L11*H11/H$24</f>
         <v>0.08</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <f>$L11*I11/I$24</f>
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="31">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
+        <f>$K12*C12/C$24</f>
+        <v>0.0125</v>
       </c>
       <c r="D21" s="31">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <f>$K12*D12/D$24</f>
+        <v>0.025</v>
       </c>
       <c r="E21" s="31">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <f>$K12*E12/E$24</f>
+        <v>0.025</v>
       </c>
       <c r="F21" s="31">
-        <f t="shared" si="2"/>
-        <v>3.3333333333299998E-2</v>
+        <f>$L12*F12/F$24</f>
+        <v>0.0333333333333</v>
       </c>
       <c r="G21" s="31">
-        <f t="shared" si="2"/>
-        <v>3.3333333333299998E-2</v>
+        <f>$L12*G12/G$24</f>
+        <v>0.0333333333333</v>
       </c>
       <c r="H21" s="31">
-        <f t="shared" si="2"/>
+        <f>$L12*H12/H$24</f>
         <v>0.02</v>
       </c>
       <c r="I21" s="31">
-        <f t="shared" si="2"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <f>$L12*I12/I$24</f>
+        <v>0.0075</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="31">
-        <f t="shared" si="1"/>
+        <f>$K13*C13/C$24</f>
         <v>0.1</v>
       </c>
       <c r="D22" s="31">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
+        <f>$K13*D13/D$24</f>
+        <v>0.175</v>
       </c>
       <c r="E22" s="31">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
+        <f>$K13*E13/E$24</f>
+        <v>0.175</v>
       </c>
       <c r="F22" s="31">
-        <f t="shared" si="2"/>
-        <v>0.16666666666669999</v>
+        <f>$L13*F13/F$24</f>
+        <v>0.1666666666667</v>
       </c>
       <c r="G22" s="31">
-        <f t="shared" si="2"/>
-        <v>0.16666666666669999</v>
+        <f>$L13*G13/G$24</f>
+        <v>0.1666666666667</v>
       </c>
       <c r="H22" s="31">
-        <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <f>$L13*H13/H$24</f>
+        <v>0.14</v>
       </c>
       <c r="I22" s="31">
-        <f t="shared" si="2"/>
+        <f>$L13*I13/I$24</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3693,7 +3696,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
@@ -3727,52 +3730,52 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" s="31">
-        <f t="shared" ref="C26:I26" si="3">SUM(C15:C22)</f>
+        <f>SUM(C15:C22)</f>
         <v>2.1</v>
       </c>
       <c r="D26" s="31">
-        <f t="shared" si="3"/>
-        <v>3.4750000000000001</v>
+        <f>SUM(D15:D22)</f>
+        <v>3.475</v>
       </c>
       <c r="E26" s="31">
-        <f t="shared" si="3"/>
-        <v>3.7250000000000001</v>
+        <f>SUM(E15:E22)</f>
+        <v>3.725</v>
       </c>
       <c r="F26" s="31">
-        <f t="shared" si="3"/>
-        <v>4.7333333333332996</v>
+        <f>SUM(F15:F22)</f>
+        <v>4.7333333333333</v>
       </c>
       <c r="G26" s="31">
-        <f t="shared" si="3"/>
-        <v>4.6666666666666998</v>
+        <f>SUM(G15:G22)</f>
+        <v>4.6666666666667</v>
       </c>
       <c r="H26" s="31">
-        <f t="shared" si="3"/>
+        <f>SUM(H15:H22)</f>
         <v>3.32</v>
       </c>
       <c r="I26" s="31">
-        <f t="shared" si="3"/>
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+        <f>SUM(I15:I22)</f>
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="C27">
         <f>'cost calculation'!$E11*'Characteristic analysis'!C26</f>
         <v>2.1</v>
       </c>
       <c r="D27" s="6">
         <f>'cost calculation'!$E12*'Characteristic analysis'!D26</f>
-        <v>3.4750000000000001</v>
+        <v>3.475</v>
       </c>
       <c r="E27" s="6">
         <f>'cost calculation'!$E13*'Characteristic analysis'!E26</f>
-        <v>11.175000000000001</v>
+        <v>11.175</v>
       </c>
       <c r="F27" s="6">
         <f>'cost calculation'!$E14*'Characteristic analysis'!F26</f>
-        <v>18.933333333333199</v>
+        <v>18.933333333333</v>
       </c>
       <c r="G27" s="6">
         <f>'cost calculation'!$E15*'Characteristic analysis'!G26</f>
@@ -3788,7 +3791,7 @@
       </c>
       <c r="J27" s="1">
         <f>SUM(C27:I27)</f>
-        <v>48.963333333333196</v>
+        <v>48.963333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3871,7 @@
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" s="7" t="s">
         <v>55</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F17" si="0">E4*D4</f>
+        <f>E4*D4</f>
         <v>6.3</v>
       </c>
       <c r="G4" s="32">
@@ -3911,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f>E5*D5</f>
         <v>0</v>
       </c>
       <c r="G5" s="32">
@@ -3934,22 +3937,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="B6" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="8">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="D6" s="8">
         <f>C6/3</f>
-        <v>2.9833333333333001</v>
+        <v>2.9833333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
+        <f>E6*D6</f>
         <v>0</v>
       </c>
       <c r="G6" s="32">
@@ -3957,12 +3960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="B7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="8">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="D7" s="8">
         <f>C7/3</f>
@@ -3972,15 +3975,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>9.4499999999999993</v>
+        <f>E7*D7</f>
+        <v>9.45</v>
       </c>
       <c r="G7" s="32">
         <f>Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="B8" s="7" t="s">
         <v>51</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
+        <f>E8*D8</f>
         <v>0</v>
       </c>
       <c r="G8" s="32">
@@ -4003,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f>E9*D9</f>
         <v>10.36</v>
       </c>
       <c r="G9" s="32">
@@ -4026,12 +4029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="B10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="8">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="D10" s="8">
         <f>C10/20</f>
@@ -4041,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f>E10*D10</f>
         <v>0</v>
       </c>
       <c r="G10" s="32">
@@ -4049,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
+        <f>E11*D11</f>
         <v>0</v>
       </c>
       <c r="G11" s="32">
@@ -4072,22 +4075,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="8">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="D12" s="8">
         <f>C12/10</f>
-        <v>1.9990000000000001</v>
+        <v>1.999</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
+        <f>E12*D12</f>
         <v>0</v>
       </c>
       <c r="G12" s="32">
@@ -4095,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="B13" s="7" t="s">
         <v>46</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f>E13*D13</f>
         <v>0</v>
       </c>
       <c r="G13" s="32">
@@ -4118,22 +4121,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="8">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="D14" s="8">
         <f>C14/3</f>
-        <v>6.6633333333333002</v>
+        <v>6.6633333333333</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
+        <f>E14*D14</f>
         <v>0</v>
       </c>
       <c r="G14" s="32">
@@ -4141,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4150,13 +4153,13 @@
       </c>
       <c r="D15" s="8">
         <f>C15/2</f>
-        <v>5.9950000000000001</v>
+        <v>5.995</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
+        <f>E15*D15</f>
         <v>0</v>
       </c>
       <c r="G15" s="32">
@@ -4164,22 +4167,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="8">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="D16" s="8">
         <f>C16/20</f>
-        <v>0.99950000000000006</v>
+        <v>0.9995</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
+        <f>E16*D16</f>
         <v>0</v>
       </c>
       <c r="G16" s="32">
@@ -4187,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="1" s="6">
       <c r="B17" s="7" t="s">
         <v>56</v>
       </c>
@@ -4196,13 +4199,13 @@
       </c>
       <c r="D17" s="8">
         <f>C17/10</f>
-        <v>2.2749999999999999</v>
+        <v>2.275</v>
       </c>
       <c r="E17" s="6">
         <v>12</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
+        <f>E17*D17</f>
         <v>27.3</v>
       </c>
       <c r="G17" s="32">
@@ -4210,7 +4213,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
